--- a/setenv/energy_calibration_setup.xlsx
+++ b/setenv/energy_calibration_setup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enoto/work/git/cogamo/setenv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D28A00-0BE1-1F40-8A4A-F553F38C8BE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA82740B-EE13-314F-9657-541374D3871C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9640" yWindow="460" windowWidth="18880" windowHeight="14760" xr2:uid="{EA79CD4A-BBAC-2841-8B5F-D6815DC529E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE8257-C044-4042-8721-0A70EA5C7886}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -596,6 +596,47 @@
         <v>290</v>
       </c>
     </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>2.6145299999999998</v>
+      </c>
+      <c r="D4">
+        <v>250</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>520</v>
+      </c>
+      <c r="G4">
+        <v>70</v>
+      </c>
+      <c r="H4">
+        <v>-0.3</v>
+      </c>
+      <c r="I4">
+        <v>230</v>
+      </c>
+      <c r="J4">
+        <v>294</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>230</v>
+      </c>
+      <c r="M4">
+        <v>294</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -604,10 +645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAADD2F8-9C01-2149-923A-6EFD8B364266}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -735,6 +776,47 @@
         <v>184</v>
       </c>
     </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1.4608300000000001</v>
+      </c>
+      <c r="D4">
+        <v>142</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>2000</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>-3</v>
+      </c>
+      <c r="I4">
+        <v>100</v>
+      </c>
+      <c r="J4">
+        <v>164</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/setenv/energy_calibration_setup.xlsx
+++ b/setenv/energy_calibration_setup.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enoto/work/git/cogamo/setenv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA82740B-EE13-314F-9657-541374D3871C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AA381D-7818-7547-8DC3-C30862AEA0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="460" windowWidth="18880" windowHeight="14760" xr2:uid="{EA79CD4A-BBAC-2841-8B5F-D6815DC529E4}"/>
+    <workbookView xWindow="9640" yWindow="460" windowWidth="18880" windowHeight="14760" activeTab="1" xr2:uid="{EA79CD4A-BBAC-2841-8B5F-D6815DC529E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Tl208" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57CE8257-C044-4042-8721-0A70EA5C7886}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -557,7 +557,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -566,7 +566,7 @@
         <v>2.6145299999999998</v>
       </c>
       <c r="D3">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E3">
         <v>7</v>
@@ -581,24 +581,24 @@
         <v>-3</v>
       </c>
       <c r="I3">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="J3">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
-      <c r="L3" s="1">
-        <v>230</v>
+      <c r="L3">
+        <v>220</v>
       </c>
       <c r="M3">
-        <v>290</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -610,22 +610,22 @@
         <v>250</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>520</v>
+        <v>2651</v>
       </c>
       <c r="G4">
-        <v>70</v>
+        <v>798</v>
       </c>
       <c r="H4">
-        <v>-0.3</v>
+        <v>-3</v>
       </c>
       <c r="I4">
         <v>230</v>
       </c>
       <c r="J4">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -634,6 +634,47 @@
         <v>230</v>
       </c>
       <c r="M4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>2.6145299999999998</v>
+      </c>
+      <c r="D5">
+        <v>250</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>520</v>
+      </c>
+      <c r="G5">
+        <v>70</v>
+      </c>
+      <c r="H5">
+        <v>-0.3</v>
+      </c>
+      <c r="I5">
+        <v>230</v>
+      </c>
+      <c r="J5">
+        <v>294</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>230</v>
+      </c>
+      <c r="M5">
         <v>294</v>
       </c>
     </row>
@@ -645,13 +686,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAADD2F8-9C01-2149-923A-6EFD8B364266}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="1" max="13" width="8.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
@@ -737,7 +781,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
@@ -778,7 +822,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -787,25 +831,25 @@
         <v>1.4608300000000001</v>
       </c>
       <c r="D4">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>2000</v>
+        <v>18025</v>
       </c>
       <c r="G4">
-        <v>500</v>
+        <v>3731</v>
       </c>
       <c r="H4">
-        <v>-3</v>
+        <v>-21</v>
       </c>
       <c r="I4">
         <v>100</v>
       </c>
       <c r="J4">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -814,6 +858,47 @@
         <v>100</v>
       </c>
       <c r="M4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1.4608300000000001</v>
+      </c>
+      <c r="D5">
+        <v>142</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>2000</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+      <c r="H5">
+        <v>-3</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>164</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>100</v>
+      </c>
+      <c r="M5">
         <v>164</v>
       </c>
     </row>
